--- a/research/market stats.xlsx
+++ b/research/market stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\john\projects\appstore\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7833941B-6D6C-46DC-9C92-A46C50D56366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260AD01-672F-4447-B8D8-6AE50DBF867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="6" xr2:uid="{14435FDF-8131-4E30-8147-5C1EE9FB747F}"/>
   </bookViews>
